--- a/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -120,10 +120,10 @@
     <t xml:space="preserve">end group</t>
   </si>
   <si>
-    <t xml:space="preserve">device_functionality_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVICE FUNCTIONALITY FOLLOW UP</t>
+    <t xml:space="preserve">g_device_functionality_follow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Functionality Follow Up</t>
   </si>
   <si>
     <t xml:space="preserve">select_one select_yesno</t>
@@ -147,6 +147,60 @@
     <t xml:space="preserve">Date when the police report was filed</t>
   </si>
   <si>
+    <t xml:space="preserve">${file_report} = 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_report_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please share police file report number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_file_report_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why haven't you filed a report yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${file_report} = 'no'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_functionality_follow_up_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results/Summary Page:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_functionality_follow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Functionality Follow Up Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 red</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s_note_</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -155,6 +209,89 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">submit_button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_device_follow_up_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Functionality Follow Up Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_filing_date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Date of Filing the Report**&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">selected(${file_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">},  ‘yes’)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_file_report_date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">${</t>
     </r>
     <r>
@@ -163,8 +300,69 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file_report</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">file_report_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_file_number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">**Police File number**&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_file_report_num</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
     </r>
     <r>
       <rPr>
@@ -174,28 +372,90 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">} = 'yes'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_report_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please share police file report number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_file_report_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why haven't you filed a report yet?</t>
-  </si>
-  <si>
+      <t xml:space="preserve">file_report_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_no_fil</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">**Reason for not filing a report**&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">selected(${file_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">},  ‘no’)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_note_no_file_report_reason</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -204,121 +464,8 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'no'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">group_functionality_follow_up_summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_functionality_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="text-align:center;"&gt;Device Functionality Follow Up Summary&lt;i class="fa fa-user"&gt;&lt;/i&gt; &lt;/h1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">s_note_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">submit_button</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_device_follow_up_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Functionality Follow Up Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_file_report</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Filed a report: ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_file_report_date</t>
-  </si>
-  <si>
+      <t xml:space="preserve">no_file_report_reason</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -327,113 +474,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Date: ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file_report_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_file_report_num</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Police file number: ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file_report_num</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">s_note_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">no_file_report_reason</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Why no report was filed: ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">no_file_report_reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
+      <t xml:space="preserve">}&lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_followup_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -467,6 +524,9 @@
   </si>
   <si>
     <t xml:space="preserve">Device Functionality  Follow Up Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_functionality_follow_up</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -482,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -526,15 +586,42 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -594,7 +681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,15 +710,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,15 +734,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,6 +767,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -668,13 +835,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="94.8"/>
@@ -913,7 +1080,7 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -951,7 +1118,7 @@
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1056,182 +1223,182 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="AME16" s="9"/>
-      <c r="AMF16" s="9"/>
-      <c r="AMG16" s="9"/>
-      <c r="AMH16" s="9"/>
-      <c r="AMI16" s="9"/>
-      <c r="AMJ16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="AME16" s="7"/>
+      <c r="AMF16" s="7"/>
+      <c r="AMG16" s="7"/>
+      <c r="AMH16" s="7"/>
+      <c r="AMI16" s="7"/>
+      <c r="AMJ16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="AME17" s="9"/>
-      <c r="AMF17" s="9"/>
-      <c r="AMG17" s="9"/>
-      <c r="AMH17" s="9"/>
-      <c r="AMI17" s="9"/>
-      <c r="AMJ17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="AME17" s="7"/>
+      <c r="AMF17" s="7"/>
+      <c r="AMG17" s="7"/>
+      <c r="AMH17" s="7"/>
+      <c r="AMI17" s="7"/>
+      <c r="AMJ17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="AME18" s="9"/>
-      <c r="AMF18" s="9"/>
-      <c r="AMG18" s="9"/>
-      <c r="AMH18" s="9"/>
-      <c r="AMI18" s="9"/>
-      <c r="AMJ18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="AME18" s="7"/>
+      <c r="AMF18" s="7"/>
+      <c r="AMG18" s="7"/>
+      <c r="AMH18" s="7"/>
+      <c r="AMI18" s="7"/>
+      <c r="AMJ18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="AME19" s="9"/>
-      <c r="AMF19" s="9"/>
-      <c r="AMG19" s="9"/>
-      <c r="AMH19" s="9"/>
-      <c r="AMI19" s="9"/>
-      <c r="AMJ19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="AME19" s="7"/>
+      <c r="AMF19" s="7"/>
+      <c r="AMG19" s="7"/>
+      <c r="AMH19" s="7"/>
+      <c r="AMI19" s="7"/>
+      <c r="AMJ19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="AME20" s="9"/>
-      <c r="AMF20" s="9"/>
-      <c r="AMG20" s="9"/>
-      <c r="AMH20" s="9"/>
-      <c r="AMI20" s="9"/>
-      <c r="AMJ20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="AME20" s="7"/>
+      <c r="AMF20" s="7"/>
+      <c r="AMG20" s="7"/>
+      <c r="AMH20" s="7"/>
+      <c r="AMI20" s="7"/>
+      <c r="AMJ20" s="7"/>
     </row>
     <row r="21" s="2" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1240,12 +1407,11 @@
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="P21" s="1"/>
@@ -1260,21 +1426,21 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" s="2" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="F22" s="11"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1294,11 +1460,13 @@
       <c r="B23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1312,24 +1480,21 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1341,6 +1506,137 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1367,11 +1663,11 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1433,13 +1729,13 @@
     </row>
     <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1467,13 +1763,13 @@
     </row>
     <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1546,87 +1842,87 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="AMJ1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="AMJ1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="str">
+      <c r="A2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="16" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-07  23-56</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="AMJ2" s="13"/>
+        <v>2023-12-28  22-13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="AMJ2" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -138,6 +138,18 @@
     <t xml:space="preserve">horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">police_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If, No advise the VHT to make a police Report immediately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${file_report} = 'no'</t>
+  </si>
+  <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
@@ -150,6 +162,12 @@
     <t xml:space="preserve">${file_report} = 'yes'</t>
   </si>
   <si>
+    <t xml:space="preserve">. &lt;= today()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date should not be from the  future </t>
+  </si>
+  <si>
     <t xml:space="preserve">integer</t>
   </si>
   <si>
@@ -168,9 +186,6 @@
     <t xml:space="preserve">Why haven't you filed a report yet?</t>
   </si>
   <si>
-    <t xml:space="preserve">${file_report} = 'no'</t>
-  </si>
-  <si>
     <t xml:space="preserve">group_functionality_follow_up_summary</t>
   </si>
   <si>
@@ -178,9 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
   </si>
   <si>
     <t xml:space="preserve">s_note_functionality_follow_up</t>
@@ -542,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,6 +595,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -681,40 +699,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -722,39 +736,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,482 +840,583 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ28"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="94.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="94.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="AME16" s="7"/>
-      <c r="AMF16" s="7"/>
-      <c r="AMG16" s="7"/>
-      <c r="AMH16" s="7"/>
-      <c r="AMI16" s="7"/>
-      <c r="AMJ16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="AME17" s="7"/>
-      <c r="AMF17" s="7"/>
-      <c r="AMG17" s="7"/>
-      <c r="AMH17" s="7"/>
-      <c r="AMI17" s="7"/>
-      <c r="AMJ17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1328,19 +1439,19 @@
       <c r="AMI18" s="7"/>
       <c r="AMJ18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1366,18 +1477,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1400,243 +1509,313 @@
       <c r="AMI20" s="7"/>
       <c r="AMJ20" s="7"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="AME21" s="7"/>
+      <c r="AMF21" s="7"/>
+      <c r="AMG21" s="7"/>
+      <c r="AMH21" s="7"/>
+      <c r="AMI21" s="7"/>
+      <c r="AMJ21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" s="2" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="AME22" s="7"/>
+      <c r="AMF22" s="7"/>
+      <c r="AMG22" s="7"/>
+      <c r="AMH22" s="7"/>
+      <c r="AMI22" s="7"/>
+      <c r="AMJ22" s="7"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="10"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-    </row>
-    <row r="28" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1644,7 +1823,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1653,180 +1832,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1835,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1848,86 +2027,86 @@
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="AMJ1" s="18"/>
+      <c r="B1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="AMJ1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="16" t="str">
+      <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="15" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-28  22-13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="AMJ2" s="18"/>
+        <v>2024-02-26  15-00</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="AMJ2" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/device_functionality_follow_up.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -184,24 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">Why haven't you filed a report yet?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_functionality_follow_up_summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_functionality_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Functionality Follow Up Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
   </si>
   <si>
     <r>
@@ -228,10 +210,30 @@
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">field-list summary </t>
+  </si>
+  <si>
     <t xml:space="preserve">s_note_device_follow_up_details</t>
   </si>
   <si>
-    <t xml:space="preserve">Device Functionality Follow Up Details</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Device Functionality Follow Up Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;I class="fa fa-user"&gt;&lt;/i&gt; </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">h1 yellow</t>
@@ -248,7 +250,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;**</t>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;**</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +259,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Date of Filing the Report**&lt;/h5&gt;</t>
+      <t xml:space="preserve">Date of Filing the Report**&lt;/h4&gt;</t>
     </r>
   </si>
   <si>
@@ -339,7 +341,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -349,7 +351,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">**Police File number**&lt;/h5&gt;</t>
+      <t xml:space="preserve">**Police File number**&lt;/h4&gt;</t>
     </r>
   </si>
   <si>
@@ -409,7 +411,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -419,7 +421,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">**Reason for not filing a report**&lt;/h5&gt;</t>
+      <t xml:space="preserve">**Reason for not filing a report**&lt;/h4&gt;</t>
     </r>
   </si>
   <si>
@@ -493,7 +495,7 @@
     <t xml:space="preserve">s_followup</t>
   </si>
   <si>
-    <t xml:space="preserve">Follow Up</t>
+    <t xml:space="preserve">Follow Up&lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">h1 green</t>
@@ -502,7 +504,36 @@
     <t xml:space="preserve">s_followup_note</t>
   </si>
   <si>
-    <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -554,7 +585,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,16 +628,27 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -641,6 +683,18 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -699,7 +753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,7 +779,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -744,11 +798,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,15 +822,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,10 +1021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,8 +1032,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="94.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.71"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,7 +1274,7 @@
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2"/>
@@ -1244,7 +1314,7 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1404,7 +1474,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1414,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="7"/>
@@ -1439,7 +1509,7 @@
       <c r="AMI18" s="7"/>
       <c r="AMJ18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="7"/>
@@ -1482,11 +1552,13 @@
       <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1509,91 +1581,72 @@
       <c r="AMI20" s="7"/>
       <c r="AMJ20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="AME21" s="7"/>
-      <c r="AMF21" s="7"/>
-      <c r="AMG21" s="7"/>
-      <c r="AMH21" s="7"/>
-      <c r="AMI21" s="7"/>
-      <c r="AMJ21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="AME22" s="7"/>
-      <c r="AMF22" s="7"/>
-      <c r="AMG22" s="7"/>
-      <c r="AMH22" s="7"/>
-      <c r="AMI22" s="7"/>
-      <c r="AMJ22" s="7"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="9" t="s">
-        <v>67</v>
+      <c r="E23" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1607,21 +1660,21 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1641,12 +1694,12 @@
       <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="9" t="s">
-        <v>67</v>
+      <c r="E25" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1660,162 +1713,109 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" s="3" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1846,7 +1846,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2025,83 +2025,86 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.61"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="AMJ1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="19" t="str">
+        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2024-08-27  11-03</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="AMJ1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="15" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-02-26  15-00</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="AMJ2" s="16"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="AMJ2" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
